--- a/Application/target/classes/ExcelDoc/TestData.xlsx
+++ b/Application/target/classes/ExcelDoc/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BCDF6919-D64B-4B7C-9E14-76B4DFDEB6DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4D0604D6-6473-4001-B008-9C64590CA989}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="5205" activeTab="1" xr2:uid="{7228419E-9809-4272-B3FC-5B9D2E0695A0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="10410" activeTab="1" xr2:uid="{7228419E-9809-4272-B3FC-5B9D2E0695A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Mizanur</t>
   </si>
@@ -99,9 +99,6 @@
     <t>EmailID</t>
   </si>
   <si>
-    <t>mr64885@gmail.com</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>test-output/emailable-report.html</t>
   </si>
   <si>
-    <t>This is the test report which is automated created and sent. there no control over this. if you with to be remove please send a email back to this email This is the test report which is automated created and sent. there no control over this. if you with to be remove please send a email back to this email</t>
-  </si>
-  <si>
     <t xml:space="preserve">Emal Information </t>
   </si>
   <si>
@@ -157,6 +151,9 @@
   </si>
   <si>
     <t>Test Result</t>
+  </si>
+  <si>
+    <t>This is just a test</t>
   </si>
 </sst>
 </file>
@@ -249,14 +246,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -709,7 +706,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -726,43 +723,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="A1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>0</v>
@@ -773,56 +767,56 @@
     </row>
     <row r="5" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -849,18 +843,18 @@
     </row>
     <row r="9" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -873,11 +867,10 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{2B431E9D-5ADF-4C2F-913A-86C84E61ECAB}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{D9CE0D4A-2737-405A-8DD6-327268752EB9}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{A6481562-164A-40B6-9B73-071434BC6DC1}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D9CE0D4A-2737-405A-8DD6-327268752EB9}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{A6481562-164A-40B6-9B73-071434BC6DC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>